--- a/excel_data/apiTest.xlsx
+++ b/excel_data/apiTest.xlsx
@@ -21,9 +21,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -365,6 +362,10 @@
   </si>
   <si>
     <t>n,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +841,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,40 +867,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,26 +908,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="3"/>
       <c r="K2" s="1">
         <v>200</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
@@ -934,27 +935,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3"/>
       <c r="K3" s="1">
         <v>200</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -962,35 +963,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1">
         <v>200</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -998,93 +999,93 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1">
         <v>200</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3"/>
       <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/apiTest.xlsx
+++ b/excel_data/apiTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>case_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -944,8 +952,8 @@
         <v>9</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -974,8 +982,8 @@
       <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>35</v>
@@ -1010,8 +1018,8 @@
       <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
@@ -1044,8 +1052,8 @@
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>33</v>
@@ -1076,7 +1084,9 @@
         <v>24</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>

--- a/excel_data/apiTest.xlsx
+++ b/excel_data/apiTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -224,10 +224,6 @@
       </rPr>
       <t>ttp://order.test.com/order/cancel</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -846,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -887,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -896,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>14</v>
@@ -916,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -925,7 +921,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -943,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -953,7 +949,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -971,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -980,20 +976,20 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1">
         <v>200</v>
@@ -1007,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1016,17 +1012,17 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1">
@@ -1037,65 +1033,3213 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3"/>
       <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="K8" s="1">
+        <v>200</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1">
+        <v>200</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>200</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="K12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="K13" s="1">
+        <v>200</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="1">
+        <v>200</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>200</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="K18" s="1">
+        <v>200</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1">
+        <v>200</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1">
+        <v>200</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="K22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="K23" s="1">
+        <v>200</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="K24" s="1">
+        <v>200</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1">
+        <v>200</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1">
+        <v>200</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="K28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="K29" s="1">
+        <v>200</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1">
+        <v>200</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1">
+        <v>200</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="K33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="K34" s="1">
+        <v>200</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="1">
+        <v>200</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1">
+        <v>200</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="K38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="K39" s="1">
+        <v>200</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1">
+        <v>200</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="1">
+        <v>200</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="K43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="K44" s="1">
+        <v>200</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="K45" s="1">
+        <v>200</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="1">
+        <v>200</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="1">
+        <v>200</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="K49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="K50" s="1">
+        <v>200</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="1">
+        <v>200</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="1">
+        <v>200</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="K54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="K55" s="1">
+        <v>200</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="1">
+        <v>200</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="1">
+        <v>200</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="K59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="K60" s="1">
+        <v>200</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="1">
+        <v>200</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="1">
+        <v>200</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="K64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="K65" s="1">
+        <v>200</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="K66" s="1">
+        <v>200</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="1">
+        <v>200</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="4"/>
+      <c r="K68" s="1">
+        <v>200</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="K70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="K71" s="1">
+        <v>200</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="1">
+        <v>200</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="1">
+        <v>200</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="K75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="K76" s="1">
+        <v>200</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="1">
+        <v>200</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="1">
+        <v>200</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="K80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="K81" s="1">
+        <v>200</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" s="1">
+        <v>200</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="1">
+        <v>200</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="K85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="K86" s="1">
+        <v>200</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="K87" s="1">
+        <v>200</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K88" s="1">
+        <v>200</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="1">
+        <v>200</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="K91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="K92" s="1">
+        <v>200</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93" s="1">
+        <v>200</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="1">
+        <v>200</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="K96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="K97" s="1">
+        <v>200</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="1">
+        <v>200</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="1">
+        <v>200</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="K101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="K102" s="1">
+        <v>200</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="1">
+        <v>200</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="1">
+        <v>200</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="K106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1107,9 +4251,108 @@
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D8" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D13" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="D20" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D25" r:id="rId22"/>
+    <hyperlink ref="D26" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D23" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D31" r:id="rId29"/>
+    <hyperlink ref="D29" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D35" r:id="rId33"/>
+    <hyperlink ref="D36" r:id="rId34"/>
+    <hyperlink ref="D34" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D40" r:id="rId38"/>
+    <hyperlink ref="D41" r:id="rId39"/>
+    <hyperlink ref="D39" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D46" r:id="rId43"/>
+    <hyperlink ref="D47" r:id="rId44"/>
+    <hyperlink ref="D45" r:id="rId45"/>
+    <hyperlink ref="D44" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D51" r:id="rId49"/>
+    <hyperlink ref="D52" r:id="rId50"/>
+    <hyperlink ref="D50" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D56" r:id="rId54"/>
+    <hyperlink ref="D57" r:id="rId55"/>
+    <hyperlink ref="D55" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D61" r:id="rId59"/>
+    <hyperlink ref="D62" r:id="rId60"/>
+    <hyperlink ref="D60" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D67" r:id="rId64"/>
+    <hyperlink ref="D68" r:id="rId65"/>
+    <hyperlink ref="D66" r:id="rId66"/>
+    <hyperlink ref="D65" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D72" r:id="rId70"/>
+    <hyperlink ref="D73" r:id="rId71"/>
+    <hyperlink ref="D71" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D77" r:id="rId75"/>
+    <hyperlink ref="D78" r:id="rId76"/>
+    <hyperlink ref="D76" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D82" r:id="rId80"/>
+    <hyperlink ref="D83" r:id="rId81"/>
+    <hyperlink ref="D81" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D88" r:id="rId85"/>
+    <hyperlink ref="D89" r:id="rId86"/>
+    <hyperlink ref="D87" r:id="rId87"/>
+    <hyperlink ref="D86" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D93" r:id="rId91"/>
+    <hyperlink ref="D94" r:id="rId92"/>
+    <hyperlink ref="D92" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D98" r:id="rId96"/>
+    <hyperlink ref="D99" r:id="rId97"/>
+    <hyperlink ref="D97" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D103" r:id="rId101"/>
+    <hyperlink ref="D104" r:id="rId102"/>
+    <hyperlink ref="D102" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 

--- a/excel_data/apiTest.xlsx
+++ b/excel_data/apiTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19815" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19815" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -372,12 +372,20 @@
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>run_first</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +431,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -842,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,19 +867,20 @@
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="43.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,35 +893,38 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -920,21 +937,24 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="K2" s="1">
+      <c r="I2" s="3"/>
+      <c r="L2" s="1">
         <v>200</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -947,22 +967,25 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="K3" s="1">
+      <c r="I3" s="3"/>
+      <c r="L3" s="1">
         <v>200</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -975,30 +998,33 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>200</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1011,28 +1037,31 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1">
+      <c r="K5" s="4"/>
+      <c r="L5" s="1">
         <v>200</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1045,28 +1074,31 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1079,47 +1111,22 @@
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="K8" s="1">
-        <v>200</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1138,9 @@
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
